--- a/output/2017-08-01 to 2017-09-01.xlsx
+++ b/output/2017-08-01 to 2017-09-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -110,6 +110,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-08-101-01</t>
   </si>
   <si>
@@ -123,6 +126,21 @@
   </si>
   <si>
     <t>2017-03-103-01</t>
+  </si>
+  <si>
+    <t>['Hamidreza Jafarnejadsani', 'Gabriel Barsi Haberfeld', 'Arun Lakshmanan']</t>
+  </si>
+  <si>
+    <t>['Alexander Hill', 'Alex Hill']</t>
+  </si>
+  <si>
+    <t>['Karun Koppula', 'Sierra Young']</t>
+  </si>
+  <si>
+    <t>['Harshal Maske']</t>
+  </si>
+  <si>
+    <t>['Nicole Chan']</t>
   </si>
   <si>
     <t>cfop_KWIAT</t>
@@ -859,13 +877,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
@@ -875,13 +893,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>61</v>
@@ -889,13 +910,16 @@
       <c r="D2">
         <v>48.99598393574297</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>39</v>
@@ -903,13 +927,16 @@
       <c r="D3">
         <v>31.32530120481928</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>19</v>
@@ -917,13 +944,16 @@
       <c r="D4">
         <v>15.26104417670683</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>3.5</v>
@@ -931,19 +961,25 @@
       <c r="D5">
         <v>2.811244979919679</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
         <v>1.606425702811245</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>78</v>
@@ -989,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>61</v>
@@ -1003,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>19</v>
@@ -1017,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -1031,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>4</v>
